--- a/results/FrequencyTables/26796669_gPol4.xlsx
+++ b/results/FrequencyTables/26796669_gPol4.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0101010101010101</v>
+        <v>0.00105485232067511</v>
       </c>
       <c r="C2">
-        <v>0.98989898989899</v>
+        <v>0.992465340566606</v>
       </c>
       <c r="D2">
-        <v>0.0101010101010101</v>
+        <v>0.00406871609403255</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00120554550934298</v>
       </c>
       <c r="G2">
-        <v>0.0101010101010101</v>
+        <v>0.00406871609403255</v>
       </c>
       <c r="H2">
-        <v>0.0101010101010101</v>
+        <v>0.0764014466546112</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00979505726341169</v>
       </c>
       <c r="J2">
-        <v>0.121212121212121</v>
+        <v>0.0748945147679325</v>
       </c>
       <c r="K2">
-        <v>0.232323232323232</v>
+        <v>0.139240506329114</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000602772754671489</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.997438215792646</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.956298975286317</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00376732971669681</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.996986136226643</v>
       </c>
       <c r="U2">
-        <v>0.0101010101010101</v>
+        <v>0.000150693188667872</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.000150693188667872</v>
       </c>
       <c r="W2">
-        <v>0.0505050505050505</v>
+        <v>0.0322483423749247</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00165762507534659</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,22 +542,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000602772754671489</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00105485232067511</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00467148884870404</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00376732971669681</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00105485232067511</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -566,34 +566,34 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0229053646775166</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000904159132007233</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.97979797979798</v>
+        <v>0.960066305003014</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0110006027727547</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000602772754671489</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.995328511151296</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000150693188667872</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00376732971669681</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00467148884870404</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98989898989899</v>
+        <v>0.993670886075949</v>
       </c>
       <c r="C4">
-        <v>0.0101010101010101</v>
+        <v>0.00180831826401447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000301386377335744</v>
       </c>
       <c r="F4">
-        <v>0.98989898989899</v>
+        <v>0.994575045207957</v>
       </c>
       <c r="G4">
-        <v>0.98989898989899</v>
+        <v>0.9957805907173</v>
       </c>
       <c r="H4">
-        <v>0.98989898989899</v>
+        <v>0.917420132610006</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.985533453887884</v>
       </c>
       <c r="J4">
-        <v>0.878787878787879</v>
+        <v>0.922845087402049</v>
       </c>
       <c r="K4">
-        <v>0.767676767676768</v>
+        <v>0.794153104279687</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00256178420735383</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000301386377335744</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.988245931283906</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00105485232067511</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.998794454490657</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00210970464135021</v>
       </c>
       <c r="U4">
-        <v>0.98989898989899</v>
+        <v>0.999698613622664</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.999849306811332</v>
       </c>
       <c r="W4">
-        <v>0.94949494949495</v>
+        <v>0.95750452079566</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.991862567811935</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,61 +687,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00482218203737191</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00482218203737191</v>
       </c>
       <c r="D5">
-        <v>0.98989898989899</v>
+        <v>0.994725738396624</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.993972272453285</v>
       </c>
       <c r="F5">
-        <v>0.0101010101010101</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000452079566003617</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00376732971669681</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0272754671488849</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.99789029535865</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0202020202020202</v>
+        <v>0.0375226039783002</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0429475587703436</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.997588908981314</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000150693188667872</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000602772754671489</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000602772754671489</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000150693188667872</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000301386377335744</v>
       </c>
     </row>
   </sheetData>
